--- a/queryrollup.xlsx
+++ b/queryrollup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRANSITUS25\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69DC315-D923-4D0B-8AFA-30BEA07E1AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63127AB-46D8-4D2F-BD45-3A3ACE8BB59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,13 +241,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0">
-  <autoFilter ref="A1:K14" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -552,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -646,7 +640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -660,7 +654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>26</v>
       </c>
@@ -697,7 +691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>19</v>
       </c>
@@ -734,7 +728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -748,7 +742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>22</v>
       </c>
@@ -762,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>26</v>
       </c>
@@ -799,7 +793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>19</v>
       </c>
@@ -810,7 +804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>23</v>
       </c>
